--- a/Istiqlal/Sekolah/Ma'had/IjazahMahad/Nilai.xlsx
+++ b/Istiqlal/Sekolah/Ma'had/IjazahMahad/Nilai.xlsx
@@ -8,79 +8,361 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ichsan\design\Istiqlal\Sekolah\Ma'had\IjazahMahad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88EF74B-AB5F-46BF-BEA4-88CCB45A5DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810AE2B5-E683-4239-AA7B-28BF3B5E3AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{9E4E6389-89D1-435A-93C8-C4C60AB40162}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Nama</t>
   </si>
   <si>
-    <t>Tempat Lahir</t>
-  </si>
-  <si>
-    <t>Tanggal lahir</t>
-  </si>
-  <si>
-    <t>nilai rata2</t>
-  </si>
-  <si>
-    <t>huruf nilai rata2</t>
-  </si>
-  <si>
     <t>Nilai Tahfidz</t>
   </si>
   <si>
     <t>Nilai Tuhfatul</t>
   </si>
   <si>
-    <t>Ichsan</t>
-  </si>
-  <si>
-    <t>Bekasi</t>
-  </si>
-  <si>
-    <t>mumtaz</t>
-  </si>
-  <si>
-    <t>jayyid</t>
+    <t>عفيفة أذكياء</t>
+  </si>
+  <si>
+    <t>Tempat  tanggal Lahir</t>
+  </si>
+  <si>
+    <t>أزاليا وندرايا أفلح</t>
+  </si>
+  <si>
+    <t>نظيفة عصمى شهراني</t>
+  </si>
+  <si>
+    <t>عفيرة</t>
+  </si>
+  <si>
+    <t>يمنى جميلة نعيم</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بكاسي, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve">٢ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>٧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>٢٠٠٧</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">فربالنجا, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>٣۱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>۱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - ٢٠٠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>٧</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بكاسي, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve">۵ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>٧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>٢٠٠٧</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بكاسي , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve">٢٦ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>٨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>٢٠٠٧</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">بكاسي, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve">۵ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>۳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>٢٠٠٧</t>
+    </r>
+  </si>
+  <si>
+    <t>۸۸.</t>
+  </si>
+  <si>
+    <t>۹۰.</t>
+  </si>
+  <si>
+    <t>۹۵.</t>
+  </si>
+  <si>
+    <t>۸۵.</t>
+  </si>
+  <si>
+    <t>جيد جدا</t>
+  </si>
+  <si>
+    <t>ممتاز</t>
+  </si>
+  <si>
+    <t>huruf nilai tuhfah</t>
+  </si>
+  <si>
+    <t>huruf nilai tahfidz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arabic Typesetting"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,9 +385,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,65 +703,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EF4B50-8FCD-4E06-845A-00D27BB45AB8}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
-        <v>36486</v>
-      </c>
-      <c r="D2">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>